--- a/varmoney2.xlsx
+++ b/varmoney2.xlsx
@@ -1,36 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\misha\Desktop\bot_varya\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16520" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="276" yWindow="456" windowWidth="28236" windowHeight="16524"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="587286917" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="746683391" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="587286917" sheetId="2" r:id="rId1"/>
+    <sheet name="746683391" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+  <si>
+    <t>Михандопола</t>
+  </si>
+  <si>
+    <t>2022-03-16</t>
+  </si>
+  <si>
+    <t>Молоко</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Веня</t>
+  </si>
+  <si>
+    <t>Вугок</t>
+  </si>
+  <si>
+    <t>Цуц</t>
+  </si>
+  <si>
+    <t>Хуй</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,81 +81,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,82 +396,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="10.1640625" customWidth="1" min="2" max="2"/>
-    <col width="12.5" customWidth="1" min="3" max="3"/>
-    <col width="10.1640625" bestFit="1" customWidth="1" min="4" max="6"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Миша</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>44626</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>44626</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>44627</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>44657</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>44997</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B2" t="n">
-        <v>25</v>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>322</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>44636</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>700</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>700</v>
+      </c>
+      <c r="E2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -506,57 +469,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col width="15.5" customWidth="1" min="2" max="2"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Сучка</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>2022-03-06</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>2022-03-06</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2022-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>600</v>
-      </c>
-      <c r="C2" t="n">
-        <v>300</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>700</v>
+      </c>
+      <c r="E2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
